--- a/surveys/Characterization 012320-1045.xlsx
+++ b/surveys/Characterization 012320-1045.xlsx
@@ -3580,7 +3580,7 @@
       <c r="O13" s="289" t="n"/>
       <c r="P13" s="289" t="n"/>
       <c r="Q13" s="232" t="n">
-        <v>0.3445</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R13" s="289" t="n"/>
       <c r="S13" s="289" t="n"/>
